--- a/homeworks/CF_HW_2_2024_Ans.xlsx
+++ b/homeworks/CF_HW_2_2024_Ans.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Problems/Problems Fall 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{222B70A7-16C9-2645-B94E-46DC2EFCDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD6547A-9EF2-8146-B211-9A01572F5F7A}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="8_{222B70A7-16C9-2645-B94E-46DC2EFCDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527A8428-EF7B-EA4C-B6BB-2FCA94687372}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="560" windowWidth="28640" windowHeight="27020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="500" windowWidth="28640" windowHeight="27020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 2 Ans" sheetId="1" r:id="rId1"/>
     <sheet name="Q# 2" sheetId="6" r:id="rId2"/>
     <sheet name="Q# 3" sheetId="4" r:id="rId3"/>
-    <sheet name="Q#5" sheetId="5" r:id="rId4"/>
-    <sheet name="Q# 8" sheetId="2" r:id="rId5"/>
+    <sheet name="Q# 5" sheetId="5" r:id="rId4"/>
+    <sheet name="Q# 9" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="166">
   <si>
     <t>Proportion of Total Value * Time</t>
   </si>
@@ -92,11 +92,11 @@
   </si>
   <si>
     <t>Monthly Interest  Rate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Months</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Corporate Finance</t>
@@ -364,9 +364,6 @@
     <t>Question 2(c)</t>
   </si>
   <si>
-    <t>Question 2(e)</t>
-  </si>
-  <si>
     <t>=PMT(rate,nper,pv,fv,type)</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>(3) Another way is to use CUMPRINC formula in Excel.  You may have to manually change the "End" variable or use Goal Seek</t>
   </si>
   <si>
-    <t>For answers using tables, see tab Q#2</t>
-  </si>
-  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -500,9 +494,6 @@
   </si>
   <si>
     <t>&lt;-----The beginning date doesn't matter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are a few ways to do this.  (1) Make an amortization table (see Q#5 tab). </t>
   </si>
   <si>
     <t>&lt;----Change this value until the principal is reduced by at least 100k.  Note, it only accepts integers.  It crosses 100k btwn 70 and 71.</t>
@@ -552,9 +543,6 @@
     <t>Change from "0" to "-100,000"</t>
   </si>
   <si>
-    <t>(4) I was playing around w/ the NPER formula and found that this worked: switching FV from "0" to "-100,000", the NPER is 70.54, which is the same as above.</t>
-  </si>
-  <si>
     <t>=PMT(rate,nper,pv,fv,type) @ 4%  Note: if interest/compounding rate drops by 1/3, you have to contribute 55% more.</t>
   </si>
   <si>
@@ -664,9 +652,6 @@
     <t>&lt;----1/(1+r)^10</t>
   </si>
   <si>
-    <t>This is simple to do in a table.  See Q#2 Tab.  For the annuities, one way is multiply the PV by  (1+r) ^ 0.5, which has the effect of decreasing the exponent in each DF by 0.5.</t>
-  </si>
-  <si>
     <t>Using a mid-year adjustment, each CF would be discounted at 0.5, 1.5, 2.5 years.  In short, each exponent used to determine the DF would be reduced by 0.5, which increases the PV of each payment.</t>
   </si>
   <si>
@@ -679,9 +664,6 @@
     <t xml:space="preserve">(2) Notice that the payments are in the form of 2 10-year annuities, so use the PV Excel function to find the PV value of each.  </t>
   </si>
   <si>
-    <t>For the annuity beginning in YR 11, you'll have to discount that back 10 years to find it Y0 PV.</t>
-  </si>
-  <si>
     <t>This is because (1+r)^0.5 / (1+r) ^n equals (1+r) ^ (0.5 - n).  Thus each discount factor is decreased by (1+r)^0.5.</t>
   </si>
   <si>
@@ -698,6 +680,30 @@
   </si>
   <si>
     <t>Under the CBA, the total AAV would be $46.08MM * 10 or roughly $461MM, which is greater than the PV calculated above.</t>
+  </si>
+  <si>
+    <t>For the annuity beginning in YR 11, you'll have to discount that back 10 years to find its Y_0 PV.</t>
+  </si>
+  <si>
+    <t>&lt;-----Sum of PV of both annuities</t>
+  </si>
+  <si>
+    <t>This is simple to do in a table.  See Q#2 Tab.  For the annuities, one way is to multiply the PV by  (1+r) ^ 0.5, which has the effect of decreasing the exponent in each DF by 0.5.</t>
+  </si>
+  <si>
+    <t>For answers using tables, see tab Q#3</t>
+  </si>
+  <si>
+    <t>Question 3(c)</t>
+  </si>
+  <si>
+    <t>Question 3(e)</t>
+  </si>
+  <si>
+    <t>(4) I was playing around w/ the NPER formula and found that this worked: switching FV from "0" to "-100,000", the NPER is 70.54, which is the same as above.  Trying to figure why it works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a few ways to do this.  (1) Make an amortization table (see Q# 5 tab). </t>
   </si>
 </sst>
 </file>
@@ -716,11 +722,18 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1176,83 +1189,83 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1261,91 +1274,91 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1354,434 +1367,393 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="19" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2107,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView showGridLines="0" topLeftCell="A183" zoomScale="116" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2113,7 @@
     <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="179"/>
       <c r="C4" s="180" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="181"/>
     </row>
@@ -2173,8 +2145,8 @@
         <v>250000</v>
       </c>
       <c r="D8" s="129"/>
-      <c r="E8" s="209" t="s">
-        <v>109</v>
+      <c r="E8" s="207" t="s">
+        <v>107</v>
       </c>
       <c r="F8" s="185"/>
     </row>
@@ -2183,7 +2155,7 @@
       <c r="C9" s="43"/>
       <c r="D9" s="129"/>
       <c r="E9" s="186" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="187"/>
     </row>
@@ -2264,7 +2236,7 @@
         <v>289875.51643427054</v>
       </c>
       <c r="D17" s="184" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -2275,7 +2247,7 @@
         <v>289875.51643427048</v>
       </c>
       <c r="D18" s="184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -2308,7 +2280,7 @@
     </row>
     <row r="22" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="145"/>
       <c r="D22" s="145"/>
@@ -2327,240 +2299,195 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="210" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
+      <c r="B27" s="208" t="s">
+        <v>150</v>
+      </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="210" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="218"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218"/>
+      <c r="B28" s="208" t="s">
+        <v>129</v>
+      </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="210" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="B32" s="208" t="s">
+        <v>130</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="210" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
+      <c r="B33" s="208" t="s">
+        <v>151</v>
+      </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="210" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
+      <c r="B34" s="245" t="s">
+        <v>158</v>
+      </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="218"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="254" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
+      <c r="B38" s="234" t="s">
+        <v>144</v>
+      </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="255"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
+      <c r="B39" s="235"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="256">
+      <c r="B40" s="236">
         <v>365887955.9940145</v>
       </c>
-      <c r="C40" s="247" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="241"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="257"/>
-      <c r="G40" s="240"/>
-      <c r="H40" s="240"/>
-      <c r="I40" s="240"/>
-      <c r="J40" s="240"/>
-      <c r="K40" s="240"/>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="240"/>
-      <c r="O40" s="240"/>
-      <c r="P40" s="240"/>
-      <c r="Q40" s="240"/>
-      <c r="R40" s="240"/>
-      <c r="S40" s="240"/>
-      <c r="T40" s="240"/>
-      <c r="U40" s="240"/>
-      <c r="V40" s="240"/>
+      <c r="C40" s="230" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="25"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="258"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="240"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="240"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="240"/>
-      <c r="P41" s="240"/>
-      <c r="Q41" s="240"/>
-      <c r="R41" s="240"/>
-      <c r="S41" s="240"/>
-      <c r="T41" s="240"/>
-      <c r="U41" s="240"/>
-      <c r="V41" s="240"/>
+      <c r="B41" s="24"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" s="25"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="254" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="240"/>
-      <c r="D42" s="240"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="240"/>
-      <c r="H42" s="240"/>
-      <c r="I42" s="240"/>
-      <c r="J42" s="240"/>
-      <c r="K42" s="240"/>
-      <c r="L42" s="240"/>
-      <c r="M42" s="240"/>
-      <c r="N42" s="240"/>
-      <c r="O42" s="240"/>
-      <c r="P42" s="240"/>
-      <c r="Q42" s="240"/>
-      <c r="R42" s="240"/>
-      <c r="S42" s="240"/>
-      <c r="T42" s="240"/>
-      <c r="U42" s="240"/>
-      <c r="V42" s="240"/>
+      <c r="B42" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" s="25"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
-      <c r="C43" s="253" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="218"/>
-      <c r="E43" s="243"/>
-      <c r="F43" s="259"/>
-      <c r="G43" s="243"/>
-      <c r="H43" s="243"/>
-      <c r="I43" s="243"/>
-      <c r="J43" s="243"/>
-      <c r="K43" s="243"/>
-      <c r="L43" s="243"/>
-      <c r="M43" s="243"/>
-      <c r="N43" s="243"/>
-      <c r="O43" s="243"/>
-      <c r="P43" s="243"/>
-      <c r="Q43" s="243"/>
-      <c r="R43" s="243"/>
-      <c r="S43" s="243"/>
-      <c r="T43" s="243"/>
-      <c r="U43" s="243"/>
-      <c r="V43" s="243"/>
+      <c r="C43" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="227"/>
+      <c r="F43" s="237"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="227"/>
+      <c r="J43" s="227"/>
+      <c r="K43" s="227"/>
+      <c r="L43" s="227"/>
+      <c r="M43" s="227"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="227"/>
+      <c r="P43" s="227"/>
+      <c r="Q43" s="227"/>
+      <c r="R43" s="227"/>
+      <c r="S43" s="227"/>
+      <c r="T43" s="227"/>
+      <c r="U43" s="227"/>
+      <c r="V43" s="227"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
-      <c r="C44" s="218"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
-      <c r="I44" s="244"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="244"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="244"/>
-      <c r="N44" s="244"/>
-      <c r="O44" s="244"/>
-      <c r="P44" s="244"/>
-      <c r="Q44" s="244"/>
-      <c r="R44" s="244"/>
-      <c r="S44" s="244"/>
-      <c r="T44" s="244"/>
-      <c r="U44" s="244"/>
-      <c r="V44" s="244"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="238"/>
+      <c r="G44" s="228"/>
+      <c r="H44" s="228"/>
+      <c r="I44" s="228"/>
+      <c r="J44" s="228"/>
+      <c r="K44" s="228"/>
+      <c r="L44" s="228"/>
+      <c r="M44" s="228"/>
+      <c r="N44" s="228"/>
+      <c r="O44" s="228"/>
+      <c r="P44" s="228"/>
+      <c r="Q44" s="228"/>
+      <c r="R44" s="228"/>
+      <c r="S44" s="228"/>
+      <c r="T44" s="228"/>
+      <c r="U44" s="228"/>
+      <c r="V44" s="228"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
@@ -2569,52 +2496,50 @@
       <c r="C45" s="12">
         <v>2000000</v>
       </c>
-      <c r="D45" s="218"/>
-      <c r="E45" s="245"/>
-      <c r="F45" s="261"/>
-      <c r="G45" s="245"/>
-      <c r="H45" s="245"/>
-      <c r="I45" s="245"/>
-      <c r="J45" s="245"/>
-      <c r="K45" s="245"/>
-      <c r="L45" s="245"/>
-      <c r="M45" s="245"/>
-      <c r="N45" s="245"/>
-      <c r="O45" s="245"/>
-      <c r="P45" s="245"/>
-      <c r="Q45" s="245"/>
-      <c r="R45" s="245"/>
-      <c r="S45" s="245"/>
-      <c r="T45" s="245"/>
-      <c r="U45" s="245"/>
-      <c r="V45" s="245"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="229"/>
+      <c r="H45" s="229"/>
+      <c r="I45" s="229"/>
+      <c r="J45" s="229"/>
+      <c r="K45" s="229"/>
+      <c r="L45" s="229"/>
+      <c r="M45" s="229"/>
+      <c r="N45" s="229"/>
+      <c r="O45" s="229"/>
+      <c r="P45" s="229"/>
+      <c r="Q45" s="229"/>
+      <c r="R45" s="229"/>
+      <c r="S45" s="229"/>
+      <c r="T45" s="229"/>
+      <c r="U45" s="229"/>
+      <c r="V45" s="229"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="220">
+      <c r="C46" s="75">
         <v>10</v>
       </c>
-      <c r="D46" s="218"/>
-      <c r="E46" s="245"/>
-      <c r="F46" s="261"/>
-      <c r="G46" s="245"/>
-      <c r="H46" s="245"/>
-      <c r="I46" s="245"/>
-      <c r="J46" s="245"/>
-      <c r="K46" s="245"/>
-      <c r="L46" s="245"/>
-      <c r="M46" s="245"/>
-      <c r="N46" s="245"/>
-      <c r="O46" s="245"/>
-      <c r="P46" s="245"/>
-      <c r="Q46" s="245"/>
-      <c r="R46" s="245"/>
-      <c r="S46" s="245"/>
-      <c r="T46" s="245"/>
-      <c r="U46" s="245"/>
-      <c r="V46" s="245"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="239"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="229"/>
+      <c r="I46" s="229"/>
+      <c r="J46" s="229"/>
+      <c r="K46" s="229"/>
+      <c r="L46" s="229"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="229"/>
+      <c r="O46" s="229"/>
+      <c r="P46" s="229"/>
+      <c r="Q46" s="229"/>
+      <c r="R46" s="229"/>
+      <c r="S46" s="229"/>
+      <c r="T46" s="229"/>
+      <c r="U46" s="229"/>
+      <c r="V46" s="229"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
@@ -2623,25 +2548,24 @@
       <c r="C47" s="119">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D47" s="218"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="257"/>
-      <c r="G47" s="240"/>
-      <c r="H47" s="240"/>
-      <c r="I47" s="240"/>
-      <c r="J47" s="240"/>
-      <c r="K47" s="240"/>
-      <c r="L47" s="240"/>
-      <c r="M47" s="240"/>
-      <c r="N47" s="240"/>
-      <c r="O47" s="240"/>
-      <c r="P47" s="240"/>
-      <c r="Q47" s="240"/>
-      <c r="R47" s="240"/>
-      <c r="S47" s="240"/>
-      <c r="T47" s="240"/>
-      <c r="U47" s="240"/>
-      <c r="V47" s="240"/>
+      <c r="E47"/>
+      <c r="F47" s="25"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
@@ -2651,231 +2575,84 @@
         <f>-PV(C47,C46,C45,0)</f>
         <v>15880044.816455794</v>
       </c>
-      <c r="D48" s="249" t="s">
+      <c r="D48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="240"/>
-      <c r="F48" s="257"/>
-      <c r="G48" s="240"/>
-      <c r="H48" s="240"/>
-      <c r="I48" s="240"/>
-      <c r="J48" s="240"/>
-      <c r="K48" s="240"/>
-      <c r="L48" s="240"/>
-      <c r="M48" s="240"/>
-      <c r="N48" s="240"/>
-      <c r="O48" s="240"/>
-      <c r="P48" s="240"/>
-      <c r="Q48" s="240"/>
-      <c r="R48" s="240"/>
-      <c r="S48" s="240"/>
-      <c r="T48" s="240"/>
-      <c r="U48" s="240"/>
-      <c r="V48" s="240"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E48"/>
+      <c r="F48" s="25"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220">
+      <c r="C49" s="75">
         <v>0</v>
       </c>
-      <c r="D49" s="218"/>
-      <c r="E49" s="246"/>
-      <c r="F49" s="262"/>
-      <c r="G49" s="246"/>
-      <c r="H49" s="246"/>
-      <c r="I49" s="246"/>
-      <c r="J49" s="246"/>
-      <c r="K49" s="246"/>
-      <c r="L49" s="246"/>
-      <c r="M49" s="246"/>
-      <c r="N49" s="246"/>
-      <c r="O49" s="246"/>
-      <c r="P49" s="246"/>
-      <c r="Q49" s="246"/>
-      <c r="R49" s="246"/>
-      <c r="S49" s="246"/>
-      <c r="T49" s="246"/>
-      <c r="U49" s="246"/>
-      <c r="V49" s="246"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="263"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="262"/>
-      <c r="G50" s="246"/>
-      <c r="H50" s="246"/>
-      <c r="I50" s="246"/>
-      <c r="J50" s="246"/>
-      <c r="K50" s="246"/>
-      <c r="L50" s="246"/>
-      <c r="M50" s="246"/>
-      <c r="N50" s="246"/>
-      <c r="O50" s="246"/>
-      <c r="P50" s="246"/>
-      <c r="Q50" s="246"/>
-      <c r="R50" s="246"/>
-      <c r="S50" s="246"/>
-      <c r="T50" s="246"/>
-      <c r="U50" s="246"/>
-      <c r="V50" s="246"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B51" s="263"/>
-      <c r="C51" s="246"/>
-      <c r="D51" s="246"/>
-      <c r="E51" s="246"/>
-      <c r="F51" s="262"/>
-      <c r="G51" s="246"/>
-      <c r="H51" s="246"/>
-      <c r="I51" s="246"/>
-      <c r="J51" s="246"/>
-      <c r="K51" s="246"/>
-      <c r="L51" s="246"/>
-      <c r="M51" s="246"/>
-      <c r="N51" s="246"/>
-      <c r="O51" s="246"/>
-      <c r="P51" s="246"/>
-      <c r="Q51" s="246"/>
-      <c r="R51" s="246"/>
-      <c r="S51" s="246"/>
-      <c r="T51" s="246"/>
-      <c r="U51" s="246"/>
-      <c r="V51" s="246"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
-      <c r="C52" s="253" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="218"/>
-      <c r="E52" s="246"/>
-      <c r="F52" s="262"/>
-      <c r="G52" s="246"/>
-      <c r="H52" s="246"/>
-      <c r="I52" s="246"/>
-      <c r="J52" s="246"/>
-      <c r="K52" s="246"/>
-      <c r="L52" s="246"/>
-      <c r="M52" s="246"/>
-      <c r="N52" s="246"/>
-      <c r="O52" s="246"/>
-      <c r="P52" s="246"/>
-      <c r="Q52" s="246"/>
-      <c r="R52" s="246"/>
-      <c r="S52" s="246"/>
-      <c r="T52" s="246"/>
-      <c r="U52" s="246"/>
-      <c r="V52" s="246"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C52" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
-      <c r="C53" s="218"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="246"/>
-      <c r="F53" s="262"/>
-      <c r="G53" s="246"/>
-      <c r="H53" s="246"/>
-      <c r="I53" s="246"/>
-      <c r="J53" s="246"/>
-      <c r="K53" s="246"/>
-      <c r="L53" s="246"/>
-      <c r="M53" s="246"/>
-      <c r="N53" s="246"/>
-      <c r="O53" s="246"/>
-      <c r="P53" s="246"/>
-      <c r="Q53" s="246"/>
-      <c r="R53" s="246"/>
-      <c r="S53" s="246"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="246"/>
-      <c r="V53" s="246"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="12">
         <v>68000000</v>
       </c>
-      <c r="D54" s="218"/>
-      <c r="E54" s="246"/>
-      <c r="F54" s="262"/>
-      <c r="G54" s="246"/>
-      <c r="H54" s="246"/>
-      <c r="I54" s="246"/>
-      <c r="J54" s="246"/>
-      <c r="K54" s="246"/>
-      <c r="L54" s="246"/>
-      <c r="M54" s="246"/>
-      <c r="N54" s="246"/>
-      <c r="O54" s="246"/>
-      <c r="P54" s="246"/>
-      <c r="Q54" s="246"/>
-      <c r="R54" s="246"/>
-      <c r="S54" s="246"/>
-      <c r="T54" s="246"/>
-      <c r="U54" s="246"/>
-      <c r="V54" s="246"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="220">
+      <c r="C55" s="75">
         <v>10</v>
       </c>
-      <c r="D55" s="218"/>
-      <c r="E55" s="246"/>
-      <c r="F55" s="262"/>
-      <c r="G55" s="246"/>
-      <c r="H55" s="246"/>
-      <c r="I55" s="246"/>
-      <c r="J55" s="246"/>
-      <c r="K55" s="246"/>
-      <c r="L55" s="246"/>
-      <c r="M55" s="246"/>
-      <c r="N55" s="246"/>
-      <c r="O55" s="246"/>
-      <c r="P55" s="246"/>
-      <c r="Q55" s="246"/>
-      <c r="R55" s="246"/>
-      <c r="S55" s="246"/>
-      <c r="T55" s="246"/>
-      <c r="U55" s="246"/>
-      <c r="V55" s="246"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="119">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="D56" s="218"/>
-      <c r="E56" s="246"/>
-      <c r="F56" s="262"/>
-      <c r="G56" s="246"/>
-      <c r="H56" s="246"/>
-      <c r="I56" s="246"/>
-      <c r="J56" s="246"/>
-      <c r="K56" s="246"/>
-      <c r="L56" s="246"/>
-      <c r="M56" s="246"/>
-      <c r="N56" s="246"/>
-      <c r="O56" s="246"/>
-      <c r="P56" s="246"/>
-      <c r="Q56" s="246"/>
-      <c r="R56" s="246"/>
-      <c r="S56" s="246"/>
-      <c r="T56" s="246"/>
-      <c r="U56" s="246"/>
-      <c r="V56" s="246"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
         <v>11</v>
       </c>
@@ -2883,284 +2660,169 @@
         <f>-PV(C56,C55,C54,0)</f>
         <v>539921523.75949705</v>
       </c>
-      <c r="D57" s="249" t="s">
+      <c r="D57" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="246"/>
-      <c r="F57" s="262"/>
-      <c r="G57" s="246"/>
-      <c r="H57" s="246"/>
-      <c r="I57" s="246"/>
-      <c r="J57" s="246"/>
-      <c r="K57" s="246"/>
-      <c r="L57" s="246"/>
-      <c r="M57" s="246"/>
-      <c r="N57" s="246"/>
-      <c r="O57" s="246"/>
-      <c r="P57" s="246"/>
-      <c r="Q57" s="246"/>
-      <c r="R57" s="246"/>
-      <c r="S57" s="246"/>
-      <c r="T57" s="246"/>
-      <c r="U57" s="246"/>
-      <c r="V57" s="246"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="220">
+      <c r="C58" s="75">
         <v>0</v>
       </c>
-      <c r="D58" s="218"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="262"/>
-      <c r="G58" s="246"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="246"/>
-      <c r="J58" s="246"/>
-      <c r="K58" s="246"/>
-      <c r="L58" s="246"/>
-      <c r="M58" s="246"/>
-      <c r="N58" s="246"/>
-      <c r="O58" s="246"/>
-      <c r="P58" s="246"/>
-      <c r="Q58" s="246"/>
-      <c r="R58" s="246"/>
-      <c r="S58" s="246"/>
-      <c r="T58" s="246"/>
-      <c r="U58" s="246"/>
-      <c r="V58" s="246"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B59" s="263"/>
-      <c r="C59" s="246"/>
-      <c r="D59" s="246"/>
-      <c r="E59" s="246"/>
-      <c r="F59" s="262"/>
-      <c r="G59" s="246"/>
-      <c r="H59" s="246"/>
-      <c r="I59" s="246"/>
-      <c r="J59" s="246"/>
-      <c r="K59" s="246"/>
-      <c r="L59" s="246"/>
-      <c r="M59" s="246"/>
-      <c r="N59" s="246"/>
-      <c r="O59" s="246"/>
-      <c r="P59" s="246"/>
-      <c r="Q59" s="246"/>
-      <c r="R59" s="246"/>
-      <c r="S59" s="246"/>
-      <c r="T59" s="246"/>
-      <c r="U59" s="246"/>
-      <c r="V59" s="246"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
-      <c r="C60" s="253" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="218"/>
-      <c r="E60" s="218"/>
+      <c r="C60" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
-      <c r="C61" s="218"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="218"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="264">
+        <v>141</v>
+      </c>
+      <c r="C62" s="240">
         <f>C57</f>
         <v>539921523.75949705</v>
       </c>
-      <c r="D62" s="218"/>
-      <c r="E62" s="218"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="265">
+        <v>136</v>
+      </c>
+      <c r="C63" s="241">
         <f>1/(1+C56)^10</f>
         <v>0.64825700731550417</v>
       </c>
-      <c r="D63" s="225" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="218"/>
+      <c r="D63" s="209" t="s">
+        <v>147</v>
+      </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="84" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C64" s="76">
         <f>C63*C62</f>
         <v>350007911.17755842</v>
       </c>
-      <c r="D64" s="218"/>
-      <c r="E64" s="218"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
-      <c r="C65" s="225"/>
-      <c r="D65" s="218"/>
-      <c r="E65" s="218"/>
+      <c r="C65" s="209"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="254" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="264">
+      <c r="B66" s="234" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="240">
         <f>C64+C48</f>
         <v>365887955.9940142</v>
       </c>
-      <c r="D66" s="218">
-        <f>C66*(1+C56)^0.5</f>
-        <v>373904552.49890333</v>
-      </c>
-      <c r="E66" s="218"/>
+      <c r="D66" s="246" t="s">
+        <v>159</v>
+      </c>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
-      <c r="C67" s="225"/>
-      <c r="D67" s="218"/>
-      <c r="E67" s="218"/>
+      <c r="C67" s="209"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:6" s="50" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="248"/>
-      <c r="D68" s="248"/>
-      <c r="E68" s="248"/>
-      <c r="F68" s="266"/>
+      <c r="F68" s="242"/>
     </row>
     <row r="69" spans="2:6" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="254"/>
-      <c r="C69" s="248"/>
-      <c r="D69" s="248"/>
-      <c r="E69" s="248"/>
-      <c r="F69" s="266"/>
+      <c r="B69" s="234"/>
+      <c r="F69" s="242"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="210" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="218"/>
-      <c r="D70" s="218"/>
-      <c r="E70" s="218"/>
+      <c r="B70" s="208" t="s">
+        <v>148</v>
+      </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="210" t="s">
+      <c r="B71" s="245" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="208" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="218"/>
-      <c r="D71" s="218"/>
-      <c r="E71" s="218"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="210" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="218"/>
-      <c r="D72" s="218"/>
-      <c r="E72" s="218"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="210"/>
-      <c r="C73" s="218"/>
-      <c r="D73" s="218"/>
-      <c r="E73" s="218"/>
+      <c r="B73" s="208"/>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="218"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
+        <v>154</v>
+      </c>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="267"/>
-      <c r="C75" s="218"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="218"/>
+      <c r="B75" s="9"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="268" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="218"/>
-      <c r="D76" s="218"/>
-      <c r="E76" s="218"/>
+      <c r="B76" s="138" t="s">
+        <v>157</v>
+      </c>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="210" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="218"/>
-      <c r="D77" s="218"/>
-      <c r="E77" s="218"/>
+      <c r="B77" s="208" t="s">
+        <v>156</v>
+      </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
-      <c r="C78" s="218"/>
-      <c r="D78" s="218"/>
-      <c r="E78" s="218"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="218"/>
-      <c r="D79" s="218"/>
-      <c r="E79" s="218"/>
+        <v>155</v>
+      </c>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="210" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="218"/>
-      <c r="D80" s="218"/>
-      <c r="E80" s="218"/>
+      <c r="B80" s="208" t="s">
+        <v>149</v>
+      </c>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="210" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="218"/>
-      <c r="D81" s="218"/>
-      <c r="E81" s="218"/>
+      <c r="B81" s="208" t="s">
+        <v>153</v>
+      </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="3"/>
-      <c r="C82" s="218"/>
-      <c r="D82" s="218"/>
-      <c r="E82" s="218"/>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3173,11 +2835,11 @@
     <row r="87" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="147" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="121" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="2"/>
@@ -3309,8 +2971,8 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="210" t="s">
-        <v>111</v>
+      <c r="B103" s="208" t="s">
+        <v>109</v>
       </c>
       <c r="C103" s="13"/>
       <c r="F103" s="4"/>
@@ -3393,7 +3055,7 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="44"/>
@@ -3407,8 +3069,8 @@
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" s="211" t="s">
-        <v>113</v>
+      <c r="B115" s="247" t="s">
+        <v>111</v>
       </c>
       <c r="C115" s="13"/>
       <c r="F115" s="4"/>
@@ -3453,11 +3115,11 @@
       <c r="B120" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="212">
+      <c r="C120" s="71">
         <v>0.1</v>
       </c>
       <c r="D120" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E120" s="58"/>
       <c r="F120" s="59"/>
@@ -3530,7 +3192,7 @@
         <v>0.05</v>
       </c>
       <c r="D127" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E127" s="58"/>
       <c r="F127" s="59"/>
@@ -3545,7 +3207,7 @@
       <c r="E128" s="58"/>
       <c r="F128" s="59"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" s="9" t="s">
         <v>12</v>
       </c>
@@ -3559,23 +3221,23 @@
       <c r="E129" s="58"/>
       <c r="F129" s="59"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" s="3"/>
       <c r="C130" s="43"/>
       <c r="D130" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E130" s="58"/>
       <c r="F130" s="59"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B131" s="3"/>
       <c r="C131" s="43"/>
       <c r="D131" s="58"/>
       <c r="E131" s="58"/>
       <c r="F131" s="59"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B132" s="14" t="s">
         <v>8</v>
       </c>
@@ -3586,7 +3248,7 @@
       <c r="E132" s="58"/>
       <c r="F132" s="59"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B133" s="14" t="s">
         <v>9</v>
       </c>
@@ -3596,15 +3258,8 @@
       <c r="D133" s="58"/>
       <c r="E133" s="58"/>
       <c r="F133" s="59"/>
-      <c r="H133" s="218"/>
-      <c r="I133" s="218"/>
-      <c r="J133" s="218"/>
-      <c r="K133" s="218"/>
-      <c r="L133" s="218"/>
-      <c r="M133" s="218"/>
-      <c r="N133" s="218"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B134" s="14" t="s">
         <v>10</v>
       </c>
@@ -3612,19 +3267,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D134" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E134" s="58"/>
       <c r="F134" s="59"/>
-      <c r="H134" s="218"/>
-      <c r="I134" s="218"/>
-      <c r="J134" s="218"/>
-      <c r="K134" s="218"/>
-      <c r="L134" s="218"/>
-      <c r="M134" s="218"/>
-      <c r="N134" s="218"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B135" s="14" t="s">
         <v>11</v>
       </c>
@@ -3634,15 +3282,8 @@
       <c r="D135" s="58"/>
       <c r="E135" s="58"/>
       <c r="F135" s="59"/>
-      <c r="H135" s="218"/>
-      <c r="I135" s="218"/>
-      <c r="J135" s="218"/>
-      <c r="K135" s="218"/>
-      <c r="L135" s="218"/>
-      <c r="M135" s="218"/>
-      <c r="N135" s="218"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="s">
         <v>12</v>
       </c>
@@ -3655,62 +3296,34 @@
       </c>
       <c r="E136" s="58"/>
       <c r="F136" s="59"/>
-      <c r="H136" s="218"/>
-      <c r="I136" s="218"/>
-      <c r="J136" s="218"/>
-      <c r="K136" s="218"/>
-      <c r="L136" s="218"/>
-      <c r="M136" s="218"/>
-      <c r="N136" s="218"/>
-    </row>
-    <row r="137" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="114"/>
       <c r="C137" s="115"/>
       <c r="D137" s="116"/>
       <c r="E137" s="116"/>
       <c r="F137" s="117"/>
-      <c r="H137" s="218"/>
-      <c r="I137" s="218"/>
-      <c r="J137" s="218"/>
-      <c r="K137" s="218"/>
-      <c r="L137" s="218"/>
-      <c r="M137" s="218"/>
-      <c r="N137" s="218"/>
-    </row>
-    <row r="138" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C138" s="43"/>
       <c r="D138" s="58"/>
       <c r="E138" s="58"/>
       <c r="F138" s="65"/>
-      <c r="H138" s="218"/>
-      <c r="I138" s="218"/>
-      <c r="J138" s="218"/>
-      <c r="K138" s="218"/>
-      <c r="L138" s="218"/>
-      <c r="M138" s="218"/>
-      <c r="N138" s="218"/>
-    </row>
-    <row r="139" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="214">
+      <c r="C139" s="210">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D139" s="143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="2"/>
-      <c r="H139" s="218"/>
-      <c r="I139" s="218"/>
-      <c r="J139" s="218"/>
-      <c r="K139" s="218"/>
-      <c r="L139" s="218"/>
-      <c r="M139" s="218"/>
-      <c r="N139" s="218"/>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>8</v>
       </c>
@@ -3719,18 +3332,14 @@
         <v>-2342.8374895373786</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="H140" s="218"/>
-      <c r="I140" s="224"/>
-      <c r="J140" s="221"/>
-      <c r="K140" s="218"/>
-      <c r="L140" s="221"/>
-      <c r="M140" s="218"/>
-      <c r="N140" s="218"/>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I140" s="64"/>
+      <c r="J140" s="214"/>
+      <c r="L140" s="214"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B141" s="14" t="s">
         <v>9</v>
       </c>
@@ -3738,18 +3347,14 @@
         <v>120</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F141" s="4"/>
-      <c r="H141" s="218"/>
-      <c r="I141" s="222"/>
-      <c r="J141" s="217"/>
-      <c r="K141" s="218"/>
+      <c r="I141" s="64"/>
+      <c r="J141" s="213"/>
       <c r="L141" s="76"/>
-      <c r="M141" s="218"/>
-      <c r="N141" s="218"/>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B142" s="14" t="s">
         <v>10</v>
       </c>
@@ -3757,19 +3362,15 @@
         <f>C139/12</f>
         <v>5.9999999999999993E-3</v>
       </c>
-      <c r="D142" s="213" t="s">
-        <v>115</v>
+      <c r="D142" s="209" t="s">
+        <v>113</v>
       </c>
       <c r="F142" s="4"/>
-      <c r="H142" s="218"/>
-      <c r="I142" s="223"/>
-      <c r="J142" s="219"/>
-      <c r="K142" s="218"/>
-      <c r="L142" s="230"/>
-      <c r="M142" s="218"/>
-      <c r="N142" s="218"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I142" s="20"/>
+      <c r="J142" s="70"/>
+      <c r="L142" s="88"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B143" s="14" t="s">
         <v>11</v>
       </c>
@@ -3777,15 +3378,11 @@
         <v>200000</v>
       </c>
       <c r="F143" s="4"/>
-      <c r="H143" s="218"/>
-      <c r="I143" s="223"/>
+      <c r="I143" s="20"/>
       <c r="J143" s="119"/>
-      <c r="K143" s="218"/>
       <c r="L143" s="119"/>
-      <c r="M143" s="218"/>
-      <c r="N143" s="218"/>
-    </row>
-    <row r="144" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
         <v>12</v>
       </c>
@@ -3795,24 +3392,16 @@
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="7"/>
-      <c r="H144" s="218"/>
-      <c r="I144" s="223"/>
-      <c r="J144" s="220"/>
-      <c r="K144" s="218"/>
-      <c r="L144" s="220"/>
-      <c r="M144" s="218"/>
-      <c r="N144" s="218"/>
-    </row>
-    <row r="145" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H145" s="218"/>
-      <c r="I145" s="223"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="75"/>
+      <c r="L144" s="75"/>
+    </row>
+    <row r="145" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I145" s="20"/>
       <c r="J145" s="12"/>
-      <c r="K145" s="218"/>
       <c r="L145" s="12"/>
-      <c r="M145" s="218"/>
-      <c r="N145" s="218"/>
-    </row>
-    <row r="146" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="123" t="s">
         <v>15</v>
       </c>
@@ -3820,139 +3409,69 @@
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="2"/>
-      <c r="H146" s="218"/>
-      <c r="I146" s="218"/>
-      <c r="J146" s="218"/>
-      <c r="K146" s="218"/>
-      <c r="L146" s="218"/>
-      <c r="M146" s="218"/>
-      <c r="N146" s="218"/>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B147" s="210" t="s">
-        <v>120</v>
-      </c>
-      <c r="C147" s="218"/>
-      <c r="D147" s="218"/>
-      <c r="E147" s="218"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B147" s="245" t="s">
+        <v>165</v>
+      </c>
       <c r="F147" s="4"/>
-      <c r="H147" s="218"/>
-      <c r="I147" s="218"/>
-      <c r="J147" s="218"/>
-      <c r="K147" s="218"/>
-      <c r="L147" s="218"/>
-      <c r="M147" s="218"/>
-      <c r="N147" s="218"/>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B148" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="C148" s="218"/>
-      <c r="D148" s="218"/>
-      <c r="E148" s="218"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B148" s="208" t="s">
+        <v>121</v>
+      </c>
       <c r="F148" s="4"/>
-      <c r="H148" s="218"/>
-      <c r="I148" s="218"/>
-      <c r="J148" s="233"/>
-      <c r="K148" s="218"/>
-      <c r="L148" s="218"/>
-      <c r="M148" s="218"/>
-      <c r="N148" s="218"/>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B149" s="210" t="s">
-        <v>125</v>
-      </c>
-      <c r="C149" s="218"/>
-      <c r="D149" s="218"/>
-      <c r="E149" s="218"/>
+      <c r="J148" s="219"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B149" s="208" t="s">
+        <v>122</v>
+      </c>
       <c r="F149" s="4"/>
-      <c r="H149" s="218"/>
-      <c r="I149" s="218"/>
-      <c r="J149" s="218"/>
-      <c r="K149" s="218"/>
-      <c r="L149" s="218"/>
-      <c r="M149" s="218"/>
-      <c r="N149" s="218"/>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B150" s="125"/>
-      <c r="C150" s="218"/>
-      <c r="D150" s="218"/>
-      <c r="E150" s="218"/>
       <c r="F150" s="4"/>
-      <c r="H150" s="218"/>
-      <c r="I150" s="218"/>
-      <c r="J150" s="218"/>
-      <c r="K150" s="218"/>
-      <c r="L150" s="218"/>
-      <c r="M150" s="218"/>
-      <c r="N150" s="218"/>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B151" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="78">
         <v>-2342.8374895373786</v>
       </c>
-      <c r="D151" s="225" t="s">
-        <v>123</v>
-      </c>
-      <c r="E151" s="218"/>
+      <c r="D151" s="209" t="s">
+        <v>120</v>
+      </c>
       <c r="F151" s="4"/>
-      <c r="H151" s="218"/>
-      <c r="I151" s="218"/>
-      <c r="J151" s="218"/>
-      <c r="K151" s="218"/>
-      <c r="L151" s="218"/>
-      <c r="M151" s="218"/>
-      <c r="N151" s="218"/>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B152" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" s="226">
+        <v>95</v>
+      </c>
+      <c r="C152" s="215">
         <f>NPER(C154,C151,C155,C156,0)</f>
         <v>49.455821820490378</v>
       </c>
-      <c r="D152" s="227" t="s">
-        <v>94</v>
-      </c>
-      <c r="E152" s="218"/>
+      <c r="D152" s="184" t="s">
+        <v>93</v>
+      </c>
       <c r="F152" s="4"/>
-      <c r="H152" s="218"/>
-      <c r="I152" s="218"/>
-      <c r="J152" s="218"/>
-      <c r="K152" s="218"/>
-      <c r="L152" s="218"/>
-      <c r="M152" s="218"/>
-      <c r="N152" s="218"/>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B153" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C153" s="226">
+        <v>96</v>
+      </c>
+      <c r="C153" s="215">
         <f>120-C152</f>
         <v>70.544178179509629</v>
       </c>
-      <c r="D153" s="227" t="s">
-        <v>98</v>
-      </c>
-      <c r="E153" s="218"/>
+      <c r="D153" s="184" t="s">
+        <v>97</v>
+      </c>
       <c r="F153" s="4"/>
-      <c r="H153" s="218"/>
-      <c r="I153" s="218"/>
-      <c r="J153" s="218"/>
-      <c r="K153" s="218"/>
-      <c r="L153" s="218"/>
-      <c r="M153" s="218"/>
-      <c r="N153" s="218"/>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B154" s="14" t="s">
         <v>10</v>
       </c>
@@ -3960,66 +3479,54 @@
         <f>7.2%/12</f>
         <v>6.000000000000001E-3</v>
       </c>
-      <c r="D154" s="218"/>
-      <c r="E154" s="218"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B155" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="220">
+      <c r="C155" s="75">
         <v>100000</v>
       </c>
-      <c r="D155" s="228" t="s">
-        <v>95</v>
-      </c>
-      <c r="E155" s="229"/>
+      <c r="D155" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="E155" s="216"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B156" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="12">
         <v>0</v>
       </c>
-      <c r="D156" s="218"/>
-      <c r="E156" s="218"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="218"/>
-      <c r="E157" s="218"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B158" s="125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C158" s="12"/>
-      <c r="D158" s="218"/>
-      <c r="E158" s="218"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
       <c r="C159" s="12"/>
-      <c r="D159" s="218"/>
-      <c r="E159" s="218"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B160" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" s="221">
+        <v>83</v>
+      </c>
+      <c r="C160" s="214">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D160" s="218"/>
-      <c r="E160" s="218"/>
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
@@ -4030,19 +3537,15 @@
         <f>PMT(C163,C162,C164,C165)</f>
         <v>-2342.8374895373786</v>
       </c>
-      <c r="D161" s="218"/>
-      <c r="E161" s="218"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="230">
+      <c r="C162" s="88">
         <v>120</v>
       </c>
-      <c r="D162" s="218"/>
-      <c r="E162" s="218"/>
       <c r="F162" s="4"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
@@ -4053,19 +3556,15 @@
         <f>C160/12</f>
         <v>5.9999999999999993E-3</v>
       </c>
-      <c r="D163" s="218"/>
-      <c r="E163" s="218"/>
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="220">
+      <c r="C164" s="75">
         <v>200000</v>
       </c>
-      <c r="D164" s="218"/>
-      <c r="E164" s="218"/>
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
@@ -4075,96 +3574,78 @@
       <c r="C165" s="12">
         <v>0</v>
       </c>
-      <c r="D165" s="218"/>
-      <c r="E165" s="218"/>
       <c r="F165" s="4"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C166" s="12">
         <v>1</v>
       </c>
-      <c r="D166" s="218"/>
-      <c r="E166" s="218"/>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C167" s="79">
         <v>70</v>
       </c>
-      <c r="D167" s="225" t="s">
-        <v>121</v>
-      </c>
-      <c r="E167" s="218"/>
+      <c r="D167" s="209" t="s">
+        <v>118</v>
+      </c>
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="139" t="s">
-        <v>103</v>
-      </c>
-      <c r="C168" s="220">
+        <v>102</v>
+      </c>
+      <c r="C168" s="75">
         <f>CUMPRINC(C163,C162,C164,C166,C167,0)</f>
         <v>-99055.957191187743</v>
       </c>
       <c r="D168" s="203" t="s">
-        <v>104</v>
-      </c>
-      <c r="E168" s="218"/>
+        <v>103</v>
+      </c>
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="3"/>
       <c r="C169" s="12"/>
-      <c r="D169" s="218"/>
-      <c r="E169" s="218"/>
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C170" s="12"/>
-      <c r="D170" s="218"/>
-      <c r="E170" s="218"/>
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="125"/>
       <c r="C171" s="12"/>
-      <c r="D171" s="218"/>
-      <c r="E171" s="218"/>
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B172" s="210" t="s">
-        <v>129</v>
+      <c r="B172" s="245" t="s">
+        <v>164</v>
       </c>
       <c r="C172" s="12"/>
-      <c r="D172" s="218"/>
-      <c r="E172" s="218"/>
       <c r="F172" s="4"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="210"/>
+      <c r="B173" s="208"/>
       <c r="C173" s="12"/>
-      <c r="D173" s="218"/>
-      <c r="E173" s="218"/>
       <c r="F173" s="4"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B174" s="231">
+      <c r="B174" s="217">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="C174" s="232" t="s">
-        <v>84</v>
-      </c>
-      <c r="D174" s="218"/>
-      <c r="E174" s="218"/>
+      <c r="C174" s="218" t="s">
+        <v>83</v>
+      </c>
       <c r="F174" s="4"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
@@ -4174,24 +3655,22 @@
       <c r="C175" s="78">
         <v>-2342.83748953738</v>
       </c>
-      <c r="D175" s="225" t="s">
-        <v>126</v>
-      </c>
-      <c r="E175" s="218"/>
+      <c r="D175" s="209" t="s">
+        <v>123</v>
+      </c>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C176" s="226">
+        <v>124</v>
+      </c>
+      <c r="C176" s="215">
         <f>NPER(B174/12,C175,C178,C179)</f>
         <v>70.544178179509416</v>
       </c>
-      <c r="D176" s="233" t="s">
-        <v>94</v>
-      </c>
-      <c r="E176" s="218"/>
+      <c r="D176" s="219" t="s">
+        <v>93</v>
+      </c>
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
@@ -4202,19 +3681,15 @@
         <f>B174/12</f>
         <v>5.9999999999999993E-3</v>
       </c>
-      <c r="D177" s="218"/>
-      <c r="E177" s="218"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C178" s="220">
+      <c r="C178" s="75">
         <v>200000</v>
       </c>
-      <c r="D178" s="218"/>
-      <c r="E178" s="218"/>
       <c r="F178" s="4"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
@@ -4224,17 +3699,13 @@
       <c r="C179" s="12">
         <v>-100000</v>
       </c>
-      <c r="D179" s="225" t="s">
-        <v>128</v>
-      </c>
-      <c r="E179" s="218"/>
+      <c r="D179" s="209" t="s">
+        <v>125</v>
+      </c>
       <c r="F179" s="4"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="3"/>
-      <c r="C180" s="218"/>
-      <c r="D180" s="218"/>
-      <c r="E180" s="218"/>
       <c r="F180" s="4"/>
     </row>
     <row r="181" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4265,7 +3736,7 @@
         <v>-67886.611841302816</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F184" s="4"/>
     </row>
@@ -4278,7 +3749,7 @@
         <v>-44869.294898316315</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F185" s="4"/>
     </row>
@@ -4401,7 +3872,7 @@
     </row>
     <row r="199" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C199" s="90"/>
       <c r="D199" s="6"/>
@@ -4463,7 +3934,7 @@
     <row r="205" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="206" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="124"/>
@@ -4519,8 +3990,8 @@
         <f>(1+C210)^12-1</f>
         <v>4.2386542209707612E-2</v>
       </c>
-      <c r="D211" s="234" t="s">
-        <v>132</v>
+      <c r="D211" s="220" t="s">
+        <v>128</v>
       </c>
       <c r="F211" s="4"/>
     </row>
@@ -4549,7 +4020,7 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="138" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C215" s="105"/>
       <c r="F215" s="4"/>
@@ -4573,7 +4044,7 @@
         <v>4.1584724043578013E-2</v>
       </c>
       <c r="D217" s="129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F217" s="4"/>
     </row>
@@ -4720,25 +4191,25 @@
       <c r="B270" s="103"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B272" s="207"/>
-      <c r="C272" s="208"/>
-      <c r="D272" s="208"/>
-      <c r="E272" s="208"/>
-      <c r="F272" s="208"/>
+      <c r="B272" s="243"/>
+      <c r="C272" s="244"/>
+      <c r="D272" s="244"/>
+      <c r="E272" s="244"/>
+      <c r="F272" s="244"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B273" s="208"/>
-      <c r="C273" s="208"/>
-      <c r="D273" s="208"/>
-      <c r="E273" s="208"/>
-      <c r="F273" s="208"/>
+      <c r="B273" s="244"/>
+      <c r="C273" s="244"/>
+      <c r="D273" s="244"/>
+      <c r="E273" s="244"/>
+      <c r="F273" s="244"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B274" s="208"/>
-      <c r="C274" s="208"/>
-      <c r="D274" s="208"/>
-      <c r="E274" s="208"/>
-      <c r="F274" s="208"/>
+      <c r="B274" s="244"/>
+      <c r="C274" s="244"/>
+      <c r="D274" s="244"/>
+      <c r="E274" s="244"/>
+      <c r="F274" s="244"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B275" s="18"/>
@@ -4754,7 +4225,7 @@
   <mergeCells count="1">
     <mergeCell ref="B272:F274"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
@@ -4781,151 +4252,151 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="233" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="236" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="237">
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="222" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="223">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235"/>
-      <c r="L5" s="235"/>
-      <c r="M5" s="235"/>
-      <c r="N5" s="235"/>
-      <c r="O5" s="235"/>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="235"/>
-      <c r="R5" s="235"/>
-      <c r="S5" s="235"/>
-      <c r="T5" s="235"/>
-      <c r="U5" s="235"/>
-      <c r="V5" s="235"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
     </row>
     <row r="6" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="235"/>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="221"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="221"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="221"/>
     </row>
     <row r="7" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="235"/>
-      <c r="N7" s="235"/>
-      <c r="O7" s="235"/>
-      <c r="P7" s="235"/>
-      <c r="Q7" s="235"/>
-      <c r="R7" s="235"/>
-      <c r="S7" s="235"/>
-      <c r="T7" s="235"/>
-      <c r="U7" s="235"/>
-      <c r="V7" s="235"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="221"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="221"/>
     </row>
     <row r="8" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="251" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="251">
+      <c r="B8" s="232" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="232">
         <v>1</v>
       </c>
-      <c r="D8" s="251">
+      <c r="D8" s="232">
         <v>2</v>
       </c>
-      <c r="E8" s="251">
+      <c r="E8" s="232">
         <v>3</v>
       </c>
-      <c r="F8" s="251">
+      <c r="F8" s="232">
         <v>4</v>
       </c>
-      <c r="G8" s="251">
+      <c r="G8" s="232">
         <v>5</v>
       </c>
-      <c r="H8" s="251">
+      <c r="H8" s="232">
         <v>6</v>
       </c>
-      <c r="I8" s="251">
+      <c r="I8" s="232">
         <v>7</v>
       </c>
-      <c r="J8" s="251">
+      <c r="J8" s="232">
         <v>8</v>
       </c>
-      <c r="K8" s="251">
+      <c r="K8" s="232">
         <v>9</v>
       </c>
-      <c r="L8" s="251">
+      <c r="L8" s="232">
         <v>10</v>
       </c>
-      <c r="M8" s="251">
+      <c r="M8" s="232">
         <v>11</v>
       </c>
-      <c r="N8" s="251">
+      <c r="N8" s="232">
         <v>12</v>
       </c>
-      <c r="O8" s="251">
+      <c r="O8" s="232">
         <v>13</v>
       </c>
-      <c r="P8" s="251">
+      <c r="P8" s="232">
         <v>14</v>
       </c>
-      <c r="Q8" s="251">
+      <c r="Q8" s="232">
         <v>15</v>
       </c>
-      <c r="R8" s="251">
+      <c r="R8" s="232">
         <v>16</v>
       </c>
-      <c r="S8" s="251">
+      <c r="S8" s="232">
         <v>17</v>
       </c>
-      <c r="T8" s="251">
+      <c r="T8" s="232">
         <v>18</v>
       </c>
-      <c r="U8" s="251">
+      <c r="U8" s="232">
         <v>19</v>
       </c>
-      <c r="V8" s="251">
+      <c r="V8" s="232">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="238" t="s">
-        <v>139</v>
+      <c r="B9" s="224" t="s">
+        <v>135</v>
       </c>
       <c r="C9" s="76">
         <v>2000000</v>
@@ -4989,94 +4460,94 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="250">
+      <c r="B10" s="224" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="231">
         <f>1/(1+$E$5)^C8</f>
         <v>0.95757923968208369</v>
       </c>
-      <c r="D10" s="250">
+      <c r="D10" s="231">
         <f t="shared" ref="D10:V10" si="0">1/(1+$E$5)^D8</f>
         <v>0.91695800027011753</v>
       </c>
-      <c r="E10" s="250">
+      <c r="E10" s="231">
         <f t="shared" si="0"/>
         <v>0.87805994471906301</v>
       </c>
-      <c r="F10" s="250">
+      <c r="F10" s="231">
         <f t="shared" si="0"/>
         <v>0.84081197425937293</v>
       </c>
-      <c r="G10" s="250">
+      <c r="G10" s="231">
         <f t="shared" si="0"/>
         <v>0.805144091026882</v>
       </c>
-      <c r="H10" s="250">
+      <c r="H10" s="231">
         <f t="shared" si="0"/>
         <v>0.77098926652004418</v>
       </c>
-      <c r="I10" s="250">
+      <c r="I10" s="231">
         <f t="shared" si="0"/>
         <v>0.73828331563731131</v>
       </c>
-      <c r="J10" s="250">
+      <c r="J10" s="231">
         <f t="shared" si="0"/>
         <v>0.70696477605794439</v>
       </c>
-      <c r="K10" s="250">
+      <c r="K10" s="231">
         <f t="shared" si="0"/>
         <v>0.67697479273958094</v>
       </c>
-      <c r="L10" s="250">
+      <c r="L10" s="231">
         <f t="shared" si="0"/>
         <v>0.64825700731550417</v>
       </c>
-      <c r="M10" s="250">
+      <c r="M10" s="231">
         <f t="shared" si="0"/>
         <v>0.62075745218376344</v>
       </c>
-      <c r="N10" s="250">
+      <c r="N10" s="231">
         <f t="shared" si="0"/>
         <v>0.59442444908911574</v>
       </c>
-      <c r="O10" s="250">
+      <c r="O10" s="231">
         <f t="shared" si="0"/>
         <v>0.56920851200719691</v>
       </c>
-      <c r="P10" s="250">
+      <c r="P10" s="231">
         <f t="shared" si="0"/>
         <v>0.54506225414842191</v>
       </c>
-      <c r="Q10" s="250">
+      <c r="Q10" s="231">
         <f t="shared" si="0"/>
         <v>0.52194029890684845</v>
       </c>
-      <c r="R10" s="250">
+      <c r="R10" s="231">
         <f t="shared" si="0"/>
         <v>0.49979919458665939</v>
       </c>
-      <c r="S10" s="250">
+      <c r="S10" s="231">
         <f t="shared" si="0"/>
         <v>0.47859733274601107</v>
       </c>
-      <c r="T10" s="250">
+      <c r="T10" s="231">
         <f t="shared" si="0"/>
         <v>0.45829487000479863</v>
       </c>
-      <c r="U10" s="250">
+      <c r="U10" s="231">
         <f t="shared" si="0"/>
         <v>0.43885365316939434</v>
       </c>
-      <c r="V10" s="250">
+      <c r="V10" s="231">
         <f t="shared" si="0"/>
         <v>0.42023714753365365</v>
       </c>
       <c r="W10" s="76"/>
     </row>
     <row r="11" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="238" t="s">
-        <v>141</v>
+      <c r="B11" s="224" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="76">
         <f>C10*C9</f>
@@ -5161,7 +4632,7 @@
       <c r="W11" s="76"/>
     </row>
     <row r="12" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="235"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="76"/>
       <c r="D12" s="76"/>
       <c r="E12" s="76"/>
@@ -5185,8 +4656,8 @@
       <c r="W12" s="76"/>
     </row>
     <row r="13" spans="2:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="239" t="s">
-        <v>142</v>
+      <c r="B13" s="225" t="s">
+        <v>138</v>
       </c>
       <c r="C13" s="76">
         <f>SUM(C11:V11)</f>
@@ -5260,78 +4731,78 @@
       <c r="W15" s="76"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="252" t="s">
-        <v>136</v>
+      <c r="B17" s="233" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="251" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="251">
+      <c r="B20" s="232" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="232">
         <v>1</v>
       </c>
-      <c r="D20" s="251">
+      <c r="D20" s="232">
         <v>2</v>
       </c>
-      <c r="E20" s="251">
+      <c r="E20" s="232">
         <v>3</v>
       </c>
-      <c r="F20" s="251">
+      <c r="F20" s="232">
         <v>4</v>
       </c>
-      <c r="G20" s="251">
+      <c r="G20" s="232">
         <v>5</v>
       </c>
-      <c r="H20" s="251">
+      <c r="H20" s="232">
         <v>6</v>
       </c>
-      <c r="I20" s="251">
+      <c r="I20" s="232">
         <v>7</v>
       </c>
-      <c r="J20" s="251">
+      <c r="J20" s="232">
         <v>8</v>
       </c>
-      <c r="K20" s="251">
+      <c r="K20" s="232">
         <v>9</v>
       </c>
-      <c r="L20" s="251">
+      <c r="L20" s="232">
         <v>10</v>
       </c>
-      <c r="M20" s="251">
+      <c r="M20" s="232">
         <v>11</v>
       </c>
-      <c r="N20" s="251">
+      <c r="N20" s="232">
         <v>12</v>
       </c>
-      <c r="O20" s="251">
+      <c r="O20" s="232">
         <v>13</v>
       </c>
-      <c r="P20" s="251">
+      <c r="P20" s="232">
         <v>14</v>
       </c>
-      <c r="Q20" s="251">
+      <c r="Q20" s="232">
         <v>15</v>
       </c>
-      <c r="R20" s="251">
+      <c r="R20" s="232">
         <v>16</v>
       </c>
-      <c r="S20" s="251">
+      <c r="S20" s="232">
         <v>17</v>
       </c>
-      <c r="T20" s="251">
+      <c r="T20" s="232">
         <v>18</v>
       </c>
-      <c r="U20" s="251">
+      <c r="U20" s="232">
         <v>19</v>
       </c>
-      <c r="V20" s="251">
+      <c r="V20" s="232">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="238" t="s">
-        <v>139</v>
+      <c r="B21" s="224" t="s">
+        <v>135</v>
       </c>
       <c r="C21" s="76">
         <v>2000000</v>
@@ -5395,93 +4866,93 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="250">
+      <c r="B22" s="224" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="231">
         <f>1/(1+$E$5)^(C20-0.5)</f>
         <v>0.97855977828750129</v>
       </c>
-      <c r="D22" s="250">
+      <c r="D22" s="231">
         <f t="shared" ref="D22:V22" si="2">1/(1+$E$5)^(D20-0.5)</f>
         <v>0.93704852847601383</v>
       </c>
-      <c r="E22" s="250">
+      <c r="E22" s="231">
         <f t="shared" si="2"/>
         <v>0.89729821744327665</v>
       </c>
-      <c r="F22" s="250">
+      <c r="F22" s="231">
         <f t="shared" si="2"/>
         <v>0.85923414482742189</v>
       </c>
-      <c r="G22" s="250">
+      <c r="G22" s="231">
         <f t="shared" si="2"/>
         <v>0.82278477911272807</v>
       </c>
-      <c r="H22" s="250">
+      <c r="H22" s="231">
         <f t="shared" si="2"/>
         <v>0.7878816232047573</v>
       </c>
-      <c r="I22" s="250">
+      <c r="I22" s="231">
         <f t="shared" si="2"/>
         <v>0.75445908570789744</v>
       </c>
-      <c r="J22" s="250">
+      <c r="J22" s="231">
         <f t="shared" si="2"/>
         <v>0.72245435766340838</v>
       </c>
-      <c r="K22" s="250">
+      <c r="K22" s="231">
         <f t="shared" si="2"/>
         <v>0.69180729451633483</v>
       </c>
-      <c r="L22" s="250">
+      <c r="L22" s="231">
         <f t="shared" si="2"/>
         <v>0.66246030308947124</v>
       </c>
-      <c r="M22" s="250">
+      <c r="M22" s="231">
         <f t="shared" si="2"/>
         <v>0.63435823335197861</v>
       </c>
-      <c r="N22" s="250">
+      <c r="N22" s="231">
         <f t="shared" si="2"/>
         <v>0.60744827477925745</v>
       </c>
-      <c r="O22" s="250">
+      <c r="O22" s="231">
         <f t="shared" si="2"/>
         <v>0.5816798571093148</v>
       </c>
-      <c r="P22" s="250">
+      <c r="P22" s="231">
         <f t="shared" si="2"/>
         <v>0.55700455530912074</v>
       </c>
-      <c r="Q22" s="250">
+      <c r="Q22" s="231">
         <f t="shared" si="2"/>
         <v>0.53337599857236495</v>
       </c>
-      <c r="R22" s="250">
+      <c r="R22" s="231">
         <f t="shared" si="2"/>
         <v>0.51074978317759734</v>
       </c>
-      <c r="S22" s="250">
+      <c r="S22" s="231">
         <f t="shared" si="2"/>
         <v>0.48908338904299281</v>
       </c>
-      <c r="T22" s="250">
+      <c r="T22" s="231">
         <f t="shared" si="2"/>
         <v>0.46833609982092572</v>
       </c>
-      <c r="U22" s="250">
+      <c r="U22" s="231">
         <f t="shared" si="2"/>
         <v>0.4484689263821946</v>
       </c>
-      <c r="V22" s="250">
+      <c r="V22" s="231">
         <f t="shared" si="2"/>
         <v>0.42944453354610224</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="238" t="s">
-        <v>141</v>
+      <c r="B23" s="224" t="s">
+        <v>137</v>
       </c>
       <c r="C23" s="76">
         <f>C22*C21</f>
@@ -5565,7 +5036,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B24" s="235"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="76"/>
       <c r="D24" s="76"/>
       <c r="E24" s="76"/>
@@ -5588,8 +5059,8 @@
       <c r="V24" s="76"/>
     </row>
     <row r="25" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="239" t="s">
-        <v>142</v>
+      <c r="B25" s="225" t="s">
+        <v>138</v>
       </c>
       <c r="C25" s="76">
         <f>SUM(C23:V23)</f>
@@ -5646,8 +5117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="192" zoomScalePageLayoutView="247" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" zoomScaleNormal="192" zoomScalePageLayoutView="247" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5664,7 +5135,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="148" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E2" s="150" t="s">
         <v>30</v>
@@ -6118,7 +5589,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="E24" s="150" t="s">
         <v>30</v>
@@ -6659,7 +6130,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D47" s="161" t="s">
         <v>30</v>
@@ -6668,7 +6139,7 @@
         <v>0.05</v>
       </c>
       <c r="F47" s="129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="34" x14ac:dyDescent="0.2">
@@ -7192,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C776027D-FF65-9C4A-AAEB-0AE3F2AEDBDF}">
   <dimension ref="C3:I130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B46" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7211,7 +6682,7 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D3" s="188" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="189">
         <v>200000</v>
@@ -7225,7 +6696,7 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D4" s="188" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="191">
         <v>120</v>
@@ -7248,8 +6719,8 @@
       <c r="F5" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="216" t="s">
-        <v>118</v>
+      <c r="G5" s="212" t="s">
+        <v>116</v>
       </c>
       <c r="H5" s="188"/>
       <c r="I5" s="188"/>
@@ -7271,14 +6742,14 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D7" s="188" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="194">
         <v>45292</v>
       </c>
       <c r="F7" s="190"/>
-      <c r="G7" s="215" t="s">
-        <v>119</v>
+      <c r="G7" s="211" t="s">
+        <v>117</v>
       </c>
       <c r="H7" s="188"/>
       <c r="I7" s="188"/>
@@ -7301,25 +6772,25 @@
     </row>
     <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="202" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="201" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="196" t="s">
+      <c r="F10" s="196" t="s">
         <v>89</v>
-      </c>
-      <c r="F10" s="196" t="s">
-        <v>90</v>
       </c>
       <c r="G10" s="196" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="196" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="197" t="s">
         <v>91</v>
-      </c>
-      <c r="I10" s="197" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
@@ -10691,8 +10162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G128"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10708,7 +10179,7 @@
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="118" t="s">
         <v>44</v>
@@ -13451,7 +12922,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
